--- a/assets/xlsx/СоставПодсистем.xlsx
+++ b/assets/xlsx/СоставПодсистем.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\МОЕ\Статьи\PAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PAPI\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D1A52D-9B68-489A-83B0-E198F48E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056EEE6-97F3-4B61-9808-AB24649A3C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80400" yWindow="16200" windowWidth="28800" windowHeight="15285" tabRatio="124" xr2:uid="{5E35BBED-BEAC-4B49-B3C9-4480B3DF77C7}"/>
+    <workbookView xWindow="-38940" yWindow="10995" windowWidth="38700" windowHeight="14970" tabRatio="124" xr2:uid="{5E35BBED-BEAC-4B49-B3C9-4480B3DF77C7}"/>
   </bookViews>
   <sheets>
     <sheet name="РазбивкаПоПодсистемам" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">РазбивкаПоПодсистемам!$A$1:$N$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">РазбивкаПоПодсистемам!$A$1:$N$106</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="121">
   <si>
     <t>PAPI</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Роли.PAPI_Администратор</t>
   </si>
   <si>
-    <t>Роли.PAPI_БазовыеПрава</t>
-  </si>
-  <si>
     <t>Роли.PAPI_ПодсистемаPAPI</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>Константы.PAPI_ТекущаяВерсия</t>
   </si>
   <si>
-    <t>Общие модули.PAPI_ПодпискиНаСобытияКлиентСервер (Удалить)</t>
-  </si>
-  <si>
     <t>Общие модули.PAPI_КонсольКода</t>
   </si>
   <si>
@@ -388,6 +382,15 @@
   </si>
   <si>
     <t>Общие картинки.PAPI_Часы</t>
+  </si>
+  <si>
+    <t>Константы.PAPI_ВыполнитьОбработкуПослеЗаписиВерсий</t>
+  </si>
+  <si>
+    <t>Константы.PAPI_АвтоУдалениеИзОбработкиПослеЗаписиВерсий</t>
+  </si>
+  <si>
+    <t>Роли.PAPI_МинимальныеПрава</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,12 +465,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -511,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -523,9 +520,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -840,26 +836,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1CC6E-ED56-42E9-AA29-00596862B179}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="83.3671875" customWidth="1"/>
-    <col min="3" max="3" width="23.3125" customWidth="1"/>
-    <col min="4" max="4" width="34.9453125" customWidth="1"/>
-    <col min="5" max="5" width="16.89453125" customWidth="1"/>
-    <col min="6" max="6" width="26.734375" customWidth="1"/>
-    <col min="7" max="7" width="19.89453125" customWidth="1"/>
-    <col min="8" max="8" width="21.734375" customWidth="1"/>
-    <col min="9" max="9" width="18.734375" customWidth="1"/>
+    <col min="2" max="2" width="6.83984375" customWidth="1"/>
+    <col min="3" max="3" width="21.3671875" customWidth="1"/>
+    <col min="4" max="4" width="34.26171875" customWidth="1"/>
+    <col min="5" max="5" width="18.89453125" customWidth="1"/>
+    <col min="6" max="6" width="27.26171875" customWidth="1"/>
+    <col min="7" max="7" width="19.1015625" customWidth="1"/>
+    <col min="8" max="8" width="19.734375" customWidth="1"/>
+    <col min="9" max="9" width="17.1015625" customWidth="1"/>
     <col min="10" max="10" width="25.47265625" customWidth="1"/>
     <col min="11" max="11" width="11.734375" customWidth="1"/>
-    <col min="12" max="12" width="26.26171875" customWidth="1"/>
+    <col min="12" max="12" width="25.3125" customWidth="1"/>
     <col min="13" max="13" width="24.68359375" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
     <col min="15" max="15" width="28.05078125" customWidth="1"/>
@@ -876,16 +873,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>10</v>
@@ -1086,140 +1083,140 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>1</v>
@@ -1395,7 +1392,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -1570,8 +1567,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11" t="s">
-        <v>106</v>
+      <c r="A17" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1594,8 +1591,8 @@
       <c r="H17" t="s">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
-        <v>3</v>
+      <c r="I17" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>3</v>
@@ -1603,8 +1600,8 @@
       <c r="K17" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>1</v>
+      <c r="L17" t="s">
+        <v>3</v>
       </c>
       <c r="M17" t="s">
         <v>3</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1635,11 +1632,11 @@
       <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>1</v>
+      <c r="H18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>3</v>
@@ -1659,7 +1656,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1679,8 +1676,8 @@
       <c r="G19" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>1</v>
+      <c r="H19" t="s">
+        <v>3</v>
       </c>
       <c r="I19" t="s">
         <v>3</v>
@@ -1688,8 +1685,8 @@
       <c r="J19" t="s">
         <v>3</v>
       </c>
-      <c r="K19" t="s">
-        <v>3</v>
+      <c r="K19" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -1703,7 +1700,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1732,8 +1729,8 @@
       <c r="J20" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>1</v>
+      <c r="K20" t="s">
+        <v>3</v>
       </c>
       <c r="L20" t="s">
         <v>3</v>
@@ -1741,13 +1738,13 @@
       <c r="M20" t="s">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
-        <v>3</v>
+      <c r="N20" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1776,8 +1773,8 @@
       <c r="J21" t="s">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
-        <v>3</v>
+      <c r="K21" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>3</v>
@@ -1785,13 +1782,13 @@
       <c r="M21" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>1</v>
+      <c r="N21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1811,8 +1808,8 @@
       <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="H22" t="s">
-        <v>3</v>
+      <c r="H22" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
@@ -1820,8 +1817,8 @@
       <c r="J22" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>3</v>
       </c>
       <c r="L22" t="s">
         <v>3</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1855,8 +1852,8 @@
       <c r="G23" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>1</v>
+      <c r="H23" t="s">
+        <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
@@ -1870,8 +1867,8 @@
       <c r="L23" t="s">
         <v>3</v>
       </c>
-      <c r="M23" t="s">
-        <v>3</v>
+      <c r="M23" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N23" t="s">
         <v>3</v>
@@ -1879,7 +1876,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1899,8 +1896,8 @@
       <c r="G24" t="s">
         <v>3</v>
       </c>
-      <c r="H24" t="s">
-        <v>3</v>
+      <c r="H24" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>3</v>
@@ -1914,8 +1911,8 @@
       <c r="L24" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>1</v>
+      <c r="M24" t="s">
+        <v>3</v>
       </c>
       <c r="N24" t="s">
         <v>3</v>
@@ -1923,10 +1920,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
+        <v>109</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
@@ -1943,8 +1940,8 @@
       <c r="G25" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>1</v>
+      <c r="H25" t="s">
+        <v>3</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
@@ -1966,8 +1963,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="13" t="s">
-        <v>111</v>
+      <c r="A26" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>1</v>
@@ -2010,8 +2007,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
-        <v>30</v>
+      <c r="A27" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>1</v>
@@ -2145,8 +2142,8 @@
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -2175,8 +2172,8 @@
       <c r="K30" t="s">
         <v>3</v>
       </c>
-      <c r="L30" t="s">
-        <v>3</v>
+      <c r="L30" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M30" t="s">
         <v>3</v>
@@ -2817,8 +2814,8 @@
       <c r="E45" t="s">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
-        <v>3</v>
+      <c r="F45" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
@@ -2835,8 +2832,8 @@
       <c r="K45" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>1</v>
+      <c r="L45" t="s">
+        <v>3</v>
       </c>
       <c r="M45" t="s">
         <v>3</v>
@@ -2855,14 +2852,14 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
-        <v>3</v>
+      <c r="D46" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>3</v>
       </c>
       <c r="G46" t="s">
         <v>3</v>
@@ -2896,11 +2893,11 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>1</v>
+      <c r="C47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -2940,8 +2937,8 @@
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>1</v>
+      <c r="C48" t="s">
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -2970,8 +2967,8 @@
       <c r="L48" t="s">
         <v>3</v>
       </c>
-      <c r="M48" t="s">
-        <v>3</v>
+      <c r="M48" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N48" t="s">
         <v>3</v>
@@ -2984,8 +2981,8 @@
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
-        <v>3</v>
+      <c r="C49" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -3014,8 +3011,8 @@
       <c r="L49" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="7" t="s">
-        <v>1</v>
+      <c r="M49" t="s">
+        <v>3</v>
       </c>
       <c r="N49" t="s">
         <v>3</v>
@@ -3023,13 +3020,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
@@ -3067,10 +3064,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -3102,8 +3099,8 @@
       <c r="L51" t="s">
         <v>3</v>
       </c>
-      <c r="M51" t="s">
-        <v>3</v>
+      <c r="M51" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N51" t="s">
         <v>3</v>
@@ -3146,19 +3143,19 @@
       <c r="L52" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>3</v>
+      <c r="M52" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -3193,8 +3190,8 @@
       <c r="M53" t="s">
         <v>3</v>
       </c>
-      <c r="N53" s="7" t="s">
-        <v>1</v>
+      <c r="N53" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3333,8 +3330,8 @@
       <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>1</v>
+      <c r="B57" t="s">
+        <v>3</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -3351,8 +3348,8 @@
       <c r="G57" t="s">
         <v>3</v>
       </c>
-      <c r="H57" t="s">
-        <v>3</v>
+      <c r="H57" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>3</v>
@@ -3395,8 +3392,8 @@
       <c r="G58" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>1</v>
+      <c r="H58" t="s">
+        <v>3</v>
       </c>
       <c r="I58" t="s">
         <v>3</v>
@@ -3407,8 +3404,8 @@
       <c r="K58" t="s">
         <v>3</v>
       </c>
-      <c r="L58" t="s">
-        <v>3</v>
+      <c r="L58" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M58" t="s">
         <v>3</v>
@@ -3418,143 +3415,143 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>3</v>
+      </c>
+      <c r="L61" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" t="s">
-        <v>3</v>
-      </c>
-      <c r="I61" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61" t="s">
-        <v>3</v>
-      </c>
-      <c r="L61" t="s">
-        <v>3</v>
-      </c>
-      <c r="M61" t="s">
-        <v>3</v>
-      </c>
-      <c r="N61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>3</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -3580,8 +3577,8 @@
       <c r="J62" t="s">
         <v>3</v>
       </c>
-      <c r="K62" t="s">
-        <v>3</v>
+      <c r="K62" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L62" t="s">
         <v>3</v>
@@ -3659,8 +3656,8 @@
       <c r="G64" t="s">
         <v>3</v>
       </c>
-      <c r="H64" t="s">
-        <v>3</v>
+      <c r="H64" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>3</v>
@@ -3668,8 +3665,8 @@
       <c r="J64" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>1</v>
+      <c r="K64" t="s">
+        <v>3</v>
       </c>
       <c r="L64" t="s">
         <v>3</v>
@@ -3703,8 +3700,8 @@
       <c r="G65" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>1</v>
+      <c r="H65" t="s">
+        <v>3</v>
       </c>
       <c r="I65" t="s">
         <v>3</v>
@@ -3721,8 +3718,8 @@
       <c r="M65" t="s">
         <v>3</v>
       </c>
-      <c r="N65" t="s">
-        <v>3</v>
+      <c r="N65" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3741,8 +3738,8 @@
       <c r="E66" t="s">
         <v>3</v>
       </c>
-      <c r="F66" t="s">
-        <v>3</v>
+      <c r="F66" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
@@ -3765,8 +3762,8 @@
       <c r="M66" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="7" t="s">
-        <v>1</v>
+      <c r="N66" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3785,8 +3782,8 @@
       <c r="E67" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>1</v>
+      <c r="F67" t="s">
+        <v>3</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
@@ -3809,8 +3806,8 @@
       <c r="M67" t="s">
         <v>3</v>
       </c>
-      <c r="N67" t="s">
-        <v>3</v>
+      <c r="N67" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3850,19 +3847,19 @@
       <c r="L68" t="s">
         <v>3</v>
       </c>
-      <c r="M68" t="s">
-        <v>3</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>1</v>
+      <c r="M68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -3894,8 +3891,8 @@
       <c r="L69" t="s">
         <v>3</v>
       </c>
-      <c r="M69" s="7" t="s">
-        <v>1</v>
+      <c r="M69" t="s">
+        <v>3</v>
       </c>
       <c r="N69" t="s">
         <v>3</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>1</v>
@@ -3946,14 +3943,14 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
+      <c r="A71" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -3990,14 +3987,14 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="7" t="s">
-        <v>67</v>
+      <c r="A72" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
+      <c r="C72" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -4014,8 +4011,8 @@
       <c r="H72" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="7" t="s">
-        <v>1</v>
+      <c r="I72" t="s">
+        <v>3</v>
       </c>
       <c r="J72" t="s">
         <v>3</v>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -4055,11 +4052,11 @@
       <c r="G73" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>3</v>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>3</v>
@@ -4079,7 +4076,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -4099,8 +4096,8 @@
       <c r="G74" t="s">
         <v>3</v>
       </c>
-      <c r="H74" t="s">
-        <v>3</v>
+      <c r="H74" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I74" t="s">
         <v>3</v>
@@ -4114,8 +4111,8 @@
       <c r="L74" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="7" t="s">
-        <v>1</v>
+      <c r="M74" t="s">
+        <v>3</v>
       </c>
       <c r="N74" t="s">
         <v>3</v>
@@ -4123,7 +4120,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -4152,14 +4149,14 @@
       <c r="J75" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>1</v>
+      <c r="K75" t="s">
+        <v>3</v>
       </c>
       <c r="L75" t="s">
         <v>3</v>
       </c>
-      <c r="M75" t="s">
-        <v>3</v>
+      <c r="M75" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N75" t="s">
         <v>3</v>
@@ -4167,7 +4164,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -4196,11 +4193,11 @@
       <c r="J76" t="s">
         <v>3</v>
       </c>
-      <c r="K76" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>1</v>
+      <c r="K76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>3</v>
       </c>
       <c r="M76" t="s">
         <v>3</v>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -4243,19 +4240,19 @@
       <c r="K77" t="s">
         <v>3</v>
       </c>
-      <c r="L77" t="s">
-        <v>3</v>
+      <c r="L77" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M77" t="s">
         <v>3</v>
       </c>
-      <c r="N77" s="7" t="s">
-        <v>1</v>
+      <c r="N77" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -4290,16 +4287,16 @@
       <c r="L78" t="s">
         <v>3</v>
       </c>
-      <c r="M78" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N78" t="s">
-        <v>3</v>
+      <c r="M78" t="s">
+        <v>3</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -4334,16 +4331,16 @@
       <c r="L79" t="s">
         <v>3</v>
       </c>
-      <c r="M79" t="s">
-        <v>3</v>
-      </c>
-      <c r="N79" s="7" t="s">
-        <v>1</v>
+      <c r="M79" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -4363,8 +4360,8 @@
       <c r="G80" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>1</v>
+      <c r="H80" t="s">
+        <v>3</v>
       </c>
       <c r="I80" t="s">
         <v>3</v>
@@ -4381,13 +4378,13 @@
       <c r="M80" t="s">
         <v>3</v>
       </c>
-      <c r="N80" t="s">
-        <v>3</v>
+      <c r="N80" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -4407,8 +4404,8 @@
       <c r="G81" t="s">
         <v>3</v>
       </c>
-      <c r="H81" t="s">
-        <v>3</v>
+      <c r="H81" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I81" t="s">
         <v>3</v>
@@ -4416,8 +4413,8 @@
       <c r="J81" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="7" t="s">
-        <v>1</v>
+      <c r="K81" t="s">
+        <v>3</v>
       </c>
       <c r="L81" t="s">
         <v>3</v>
@@ -4431,7 +4428,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -4445,8 +4442,8 @@
       <c r="E82" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>1</v>
+      <c r="F82" t="s">
+        <v>3</v>
       </c>
       <c r="G82" t="s">
         <v>3</v>
@@ -4460,8 +4457,8 @@
       <c r="J82" t="s">
         <v>3</v>
       </c>
-      <c r="K82" t="s">
-        <v>3</v>
+      <c r="K82" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L82" t="s">
         <v>3</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -4489,8 +4486,8 @@
       <c r="E83" t="s">
         <v>3</v>
       </c>
-      <c r="F83" t="s">
-        <v>3</v>
+      <c r="F83" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="G83" t="s">
         <v>3</v>
@@ -4504,8 +4501,8 @@
       <c r="J83" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="7" t="s">
-        <v>1</v>
+      <c r="K83" t="s">
+        <v>3</v>
       </c>
       <c r="L83" t="s">
         <v>3</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -4583,8 +4580,8 @@
       <c r="G85" t="s">
         <v>3</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>1</v>
+      <c r="H85" t="s">
+        <v>3</v>
       </c>
       <c r="I85" t="s">
         <v>3</v>
@@ -4592,8 +4589,8 @@
       <c r="J85" t="s">
         <v>3</v>
       </c>
-      <c r="K85" t="s">
-        <v>3</v>
+      <c r="K85" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L85" t="s">
         <v>3</v>
@@ -4607,10 +4604,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -4627,8 +4624,8 @@
       <c r="G86" t="s">
         <v>3</v>
       </c>
-      <c r="H86" t="s">
-        <v>3</v>
+      <c r="H86" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I86" t="s">
         <v>3</v>
@@ -4651,10 +4648,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -4671,8 +4668,8 @@
       <c r="G87" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>1</v>
+      <c r="H87" t="s">
+        <v>3</v>
       </c>
       <c r="I87" t="s">
         <v>3</v>
@@ -4683,8 +4680,8 @@
       <c r="K87" t="s">
         <v>3</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>1</v>
+      <c r="L87" t="s">
+        <v>3</v>
       </c>
       <c r="M87" t="s">
         <v>3</v>
@@ -4695,10 +4692,10 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -4715,8 +4712,8 @@
       <c r="G88" t="s">
         <v>3</v>
       </c>
-      <c r="H88" t="s">
-        <v>3</v>
+      <c r="H88" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="I88" t="s">
         <v>3</v>
@@ -4727,8 +4724,8 @@
       <c r="K88" t="s">
         <v>3</v>
       </c>
-      <c r="L88" t="s">
-        <v>3</v>
+      <c r="L88" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="M88" t="s">
         <v>3</v>
@@ -4738,11 +4735,11 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
+      <c r="A89" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -4750,8 +4747,8 @@
       <c r="D89" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>1</v>
+      <c r="E89" t="s">
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
@@ -4783,7 +4780,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -4794,14 +4791,14 @@
       <c r="D90" t="s">
         <v>3</v>
       </c>
-      <c r="E90" t="s">
-        <v>3</v>
+      <c r="E90" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>1</v>
+      <c r="G90" t="s">
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -4818,8 +4815,8 @@
       <c r="L90" t="s">
         <v>3</v>
       </c>
-      <c r="M90" s="7" t="s">
-        <v>1</v>
+      <c r="M90" t="s">
+        <v>3</v>
       </c>
       <c r="N90" t="s">
         <v>3</v>
@@ -4827,13 +4824,13 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>1</v>
+      <c r="C91" t="s">
+        <v>3</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
@@ -4862,8 +4859,8 @@
       <c r="L91" t="s">
         <v>3</v>
       </c>
-      <c r="M91" t="s">
-        <v>3</v>
+      <c r="M91" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="N91" t="s">
         <v>3</v>
@@ -4871,13 +4868,13 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
-        <v>3</v>
+      <c r="C92" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -4909,13 +4906,13 @@
       <c r="M92" t="s">
         <v>3</v>
       </c>
-      <c r="N92" s="7" t="s">
-        <v>1</v>
+      <c r="N92" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -4976,8 +4973,8 @@
       <c r="F94" t="s">
         <v>3</v>
       </c>
-      <c r="G94" t="s">
-        <v>3</v>
+      <c r="G94" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>3</v>
@@ -4988,8 +4985,8 @@
       <c r="J94" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="7" t="s">
-        <v>1</v>
+      <c r="K94" t="s">
+        <v>3</v>
       </c>
       <c r="L94" t="s">
         <v>3</v>
@@ -4997,13 +4994,13 @@
       <c r="M94" t="s">
         <v>3</v>
       </c>
-      <c r="N94" t="s">
-        <v>3</v>
+      <c r="N94" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -5032,8 +5029,8 @@
       <c r="J95" t="s">
         <v>3</v>
       </c>
-      <c r="K95" t="s">
-        <v>3</v>
+      <c r="K95" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L95" t="s">
         <v>3</v>
@@ -5041,13 +5038,13 @@
       <c r="M95" t="s">
         <v>3</v>
       </c>
-      <c r="N95" s="7" t="s">
-        <v>1</v>
+      <c r="N95" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -5114,8 +5111,8 @@
       <c r="H97" t="s">
         <v>3</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>1</v>
+      <c r="I97" t="s">
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>3</v>
@@ -5129,13 +5126,13 @@
       <c r="M97" t="s">
         <v>3</v>
       </c>
-      <c r="N97" t="s">
-        <v>3</v>
+      <c r="N97" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -5158,14 +5155,14 @@
       <c r="H98" t="s">
         <v>3</v>
       </c>
-      <c r="I98" t="s">
-        <v>3</v>
+      <c r="I98" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>3</v>
       </c>
-      <c r="K98" s="7" t="s">
-        <v>1</v>
+      <c r="K98" t="s">
+        <v>3</v>
       </c>
       <c r="L98" t="s">
         <v>3</v>
@@ -5179,7 +5176,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -5208,8 +5205,8 @@
       <c r="J99" t="s">
         <v>3</v>
       </c>
-      <c r="K99" t="s">
-        <v>3</v>
+      <c r="K99" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="L99" t="s">
         <v>3</v>
@@ -5217,13 +5214,13 @@
       <c r="M99" t="s">
         <v>3</v>
       </c>
-      <c r="N99" s="7" t="s">
-        <v>1</v>
+      <c r="N99" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -5249,8 +5246,8 @@
       <c r="I100" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="7" t="s">
-        <v>1</v>
+      <c r="J100" t="s">
+        <v>3</v>
       </c>
       <c r="K100" t="s">
         <v>3</v>
@@ -5261,13 +5258,13 @@
       <c r="M100" t="s">
         <v>3</v>
       </c>
-      <c r="N100" t="s">
-        <v>3</v>
+      <c r="N100" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -5281,8 +5278,8 @@
       <c r="E101" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>1</v>
+      <c r="F101" t="s">
+        <v>3</v>
       </c>
       <c r="G101" t="s">
         <v>3</v>
@@ -5293,8 +5290,8 @@
       <c r="I101" t="s">
         <v>3</v>
       </c>
-      <c r="J101" t="s">
-        <v>3</v>
+      <c r="J101" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="K101" t="s">
         <v>3</v>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5325,11 +5322,11 @@
       <c r="E102" t="s">
         <v>3</v>
       </c>
-      <c r="F102" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>1</v>
+      <c r="F102" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
       </c>
       <c r="H102" t="s">
         <v>3</v>
@@ -5355,7 +5352,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -5363,8 +5360,8 @@
       <c r="C103" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>1</v>
+      <c r="D103" t="s">
+        <v>3</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
@@ -5372,8 +5369,8 @@
       <c r="F103" t="s">
         <v>3</v>
       </c>
-      <c r="G103" t="s">
-        <v>3</v>
+      <c r="G103" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>3</v>
@@ -5399,16 +5396,16 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>3</v>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
@@ -5442,14 +5439,14 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="13" t="s">
-        <v>115</v>
+      <c r="A105" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
       </c>
-      <c r="C105" t="s">
-        <v>3</v>
+      <c r="C105" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
@@ -5475,8 +5472,8 @@
       <c r="K105" t="s">
         <v>3</v>
       </c>
-      <c r="L105" s="7" t="s">
-        <v>1</v>
+      <c r="L105" t="s">
+        <v>3</v>
       </c>
       <c r="M105" t="s">
         <v>3</v>
@@ -5485,8 +5482,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>3</v>
+      </c>
+      <c r="K106" t="s">
+        <v>3</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N105" xr:uid="{CFD1CC6E-ED56-42E9-AA29-00596862B179}"/>
+  <autoFilter ref="A1:N106" xr:uid="{CFD1CC6E-ED56-42E9-AA29-00596862B179}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/xlsx/СоставПодсистем.xlsx
+++ b/assets/xlsx/СоставПодсистем.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PAPI\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PAPI\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056EEE6-97F3-4B61-9808-AB24649A3C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B2764-FB5D-4C36-9A89-FFFB1B4BD7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38940" yWindow="10995" windowWidth="38700" windowHeight="14970" tabRatio="124" xr2:uid="{5E35BBED-BEAC-4B49-B3C9-4480B3DF77C7}"/>
+    <workbookView xWindow="52410" yWindow="2430" windowWidth="38700" windowHeight="15645" tabRatio="124" xr2:uid="{5E35BBED-BEAC-4B49-B3C9-4480B3DF77C7}"/>
   </bookViews>
   <sheets>
     <sheet name="РазбивкаПоПодсистемам" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">РазбивкаПоПодсистемам!$A$1:$N$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">РазбивкаПоПодсистемам!$A$1:$N$107</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="122">
   <si>
     <t>PAPI</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Роли.PAPI_МинимальныеПрава</t>
+  </si>
+  <si>
+    <t>Обработки.PAPI_WebSocketСоединения</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -522,6 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -836,33 +840,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD1CC6E-ED56-42E9-AA29-00596862B179}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="83.3671875" customWidth="1"/>
-    <col min="2" max="2" width="6.83984375" customWidth="1"/>
-    <col min="3" max="3" width="21.3671875" customWidth="1"/>
-    <col min="4" max="4" width="34.26171875" customWidth="1"/>
-    <col min="5" max="5" width="18.89453125" customWidth="1"/>
-    <col min="6" max="6" width="27.26171875" customWidth="1"/>
-    <col min="7" max="7" width="19.1015625" customWidth="1"/>
-    <col min="8" max="8" width="19.734375" customWidth="1"/>
-    <col min="9" max="9" width="17.1015625" customWidth="1"/>
-    <col min="10" max="10" width="25.47265625" customWidth="1"/>
-    <col min="11" max="11" width="11.734375" customWidth="1"/>
-    <col min="12" max="12" width="25.3125" customWidth="1"/>
-    <col min="13" max="13" width="24.68359375" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.265625" customWidth="1"/>
+    <col min="5" max="5" width="18.86328125" customWidth="1"/>
+    <col min="6" max="6" width="27.265625" customWidth="1"/>
+    <col min="7" max="7" width="19.06640625" customWidth="1"/>
+    <col min="8" max="8" width="19.73046875" customWidth="1"/>
+    <col min="9" max="9" width="17.06640625" customWidth="1"/>
+    <col min="10" max="10" width="25.46484375" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.6640625" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
-    <col min="15" max="15" width="28.05078125" customWidth="1"/>
+    <col min="15" max="15" width="28.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -950,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -994,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>105</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>106</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>107</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>108</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>114</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>116</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="12" t="s">
         <v>120</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>41</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>45</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>47</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>49</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>50</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>51</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>103</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>100</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>101</v>
       </c>
@@ -3150,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>53</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>55</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
@@ -3370,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>58</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="11" t="s">
         <v>110</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" s="11" t="s">
         <v>111</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" s="11" t="s">
         <v>117</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>59</v>
       </c>
@@ -3590,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>60</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>61</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>62</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>63</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>64</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
         <v>65</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>102</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>104</v>
       </c>
@@ -3942,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="12" t="s">
         <v>118</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>119</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>66</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>67</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>68</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>69</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>70</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>71</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>72</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>73</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>74</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>75</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>76</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>77</v>
       </c>
@@ -4558,7 +4562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>78</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>79</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>80</v>
       </c>
@@ -4690,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>81</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>82</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>112</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>83</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>84</v>
       </c>
@@ -4910,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>85</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>86</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>87</v>
       </c>
@@ -5042,492 +5046,536 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" t="s">
+        <v>3</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L96" t="s">
+        <v>3</v>
+      </c>
+      <c r="M96" t="s">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A97" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
-        <v>3</v>
-      </c>
-      <c r="F96" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" t="s">
-        <v>3</v>
-      </c>
-      <c r="I96" t="s">
-        <v>3</v>
-      </c>
-      <c r="J96" t="s">
-        <v>3</v>
-      </c>
-      <c r="K96" t="s">
-        <v>3</v>
-      </c>
-      <c r="L96" t="s">
-        <v>3</v>
-      </c>
-      <c r="M96" t="s">
-        <v>3</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="7" t="s">
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>3</v>
+      </c>
+      <c r="L97" t="s">
+        <v>3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>3</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A98" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" t="s">
-        <v>3</v>
-      </c>
-      <c r="I97" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" t="s">
-        <v>3</v>
-      </c>
-      <c r="K97" t="s">
-        <v>3</v>
-      </c>
-      <c r="L97" t="s">
-        <v>3</v>
-      </c>
-      <c r="M97" t="s">
-        <v>3</v>
-      </c>
-      <c r="N97" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="7" t="s">
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3</v>
+      </c>
+      <c r="K98" t="s">
+        <v>3</v>
+      </c>
+      <c r="L98" t="s">
+        <v>3</v>
+      </c>
+      <c r="M98" t="s">
+        <v>3</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A99" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" t="s">
-        <v>3</v>
-      </c>
-      <c r="F98" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" t="s">
-        <v>3</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>3</v>
-      </c>
-      <c r="K98" t="s">
-        <v>3</v>
-      </c>
-      <c r="L98" t="s">
-        <v>3</v>
-      </c>
-      <c r="M98" t="s">
-        <v>3</v>
-      </c>
-      <c r="N98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="7" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>3</v>
+      </c>
+      <c r="K99" t="s">
+        <v>3</v>
+      </c>
+      <c r="L99" t="s">
+        <v>3</v>
+      </c>
+      <c r="M99" t="s">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A100" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" t="s">
-        <v>3</v>
-      </c>
-      <c r="H99" t="s">
-        <v>3</v>
-      </c>
-      <c r="I99" t="s">
-        <v>3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>3</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
-        <v>3</v>
-      </c>
-      <c r="M99" t="s">
-        <v>3</v>
-      </c>
-      <c r="N99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="7" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A101" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="7" t="s">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A102" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K101" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="7" t="s">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A103" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G102" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="7" t="s">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>3</v>
+      </c>
+      <c r="K103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
+        <v>3</v>
+      </c>
+      <c r="M103" t="s">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A104" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" t="s">
-        <v>3</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>3</v>
-      </c>
-      <c r="I103" t="s">
-        <v>3</v>
-      </c>
-      <c r="J103" t="s">
-        <v>3</v>
-      </c>
-      <c r="K103" t="s">
-        <v>3</v>
-      </c>
-      <c r="L103" t="s">
-        <v>3</v>
-      </c>
-      <c r="M103" t="s">
-        <v>3</v>
-      </c>
-      <c r="N103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="7" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>3</v>
+      </c>
+      <c r="K104" t="s">
+        <v>3</v>
+      </c>
+      <c r="L104" t="s">
+        <v>3</v>
+      </c>
+      <c r="M104" t="s">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A105" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" t="s">
-        <v>3</v>
-      </c>
-      <c r="G104" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" t="s">
-        <v>3</v>
-      </c>
-      <c r="I104" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" t="s">
-        <v>3</v>
-      </c>
-      <c r="K104" t="s">
-        <v>3</v>
-      </c>
-      <c r="L104" t="s">
-        <v>3</v>
-      </c>
-      <c r="M104" t="s">
-        <v>3</v>
-      </c>
-      <c r="N104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="7" t="s">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>3</v>
+      </c>
+      <c r="K105" t="s">
+        <v>3</v>
+      </c>
+      <c r="L105" t="s">
+        <v>3</v>
+      </c>
+      <c r="M105" t="s">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A106" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" t="s">
-        <v>3</v>
-      </c>
-      <c r="I105" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" t="s">
-        <v>3</v>
-      </c>
-      <c r="K105" t="s">
-        <v>3</v>
-      </c>
-      <c r="L105" t="s">
-        <v>3</v>
-      </c>
-      <c r="M105" t="s">
-        <v>3</v>
-      </c>
-      <c r="N105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="7" t="s">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>3</v>
+      </c>
+      <c r="K106" t="s">
+        <v>3</v>
+      </c>
+      <c r="L106" t="s">
+        <v>3</v>
+      </c>
+      <c r="M106" t="s">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A107" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" t="s">
-        <v>3</v>
-      </c>
-      <c r="I106" t="s">
-        <v>3</v>
-      </c>
-      <c r="J106" t="s">
-        <v>3</v>
-      </c>
-      <c r="K106" t="s">
-        <v>3</v>
-      </c>
-      <c r="L106" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M106" t="s">
-        <v>3</v>
-      </c>
-      <c r="N106" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M107" t="s">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N106" xr:uid="{CFD1CC6E-ED56-42E9-AA29-00596862B179}"/>
+  <autoFilter ref="A1:N107" xr:uid="{CFD1CC6E-ED56-42E9-AA29-00596862B179}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>